--- a/data/out/kaggle/uefa/third_teams_wc_uefa_men.xlsx
+++ b/data/out/kaggle/uefa/third_teams_wc_uefa_men.xlsx
@@ -730,14 +730,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1990</v>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1990</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1990</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>

--- a/data/out/kaggle/uefa/third_teams_wc_uefa_men.xlsx
+++ b/data/out/kaggle/uefa/third_teams_wc_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1986</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -538,14 +538,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1986</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -554,46 +554,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1986</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1986</v>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1986</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -602,14 +602,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1986</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -730,14 +730,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1990</v>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -826,94 +826,94 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1994</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1994</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1994</v>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1994</v>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -922,62 +922,62 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1994</v>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1994</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1994</v>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1994</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -986,48 +986,16 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1994</v>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1994</v>
-      </c>
-      <c r="C36" t="n">
-        <v>6</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1994</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" t="n">
         <v>3</v>
       </c>
     </row>

--- a/data/out/kaggle/uefa/third_teams_wc_uefa_men.xlsx
+++ b/data/out/kaggle/uefa/third_teams_wc_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,7 +897,7 @@
         <v>1994</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -970,14 +970,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1994</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -986,16 +986,32 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>1994</v>
-      </c>
-      <c r="C35" t="n">
+      <c r="B36" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C36" t="n">
         <v>3</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>3</v>
       </c>
     </row>
